--- a/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t xml:space="preserve">Investor *</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/01/2021</t>
   </si>
   <si>
     <t xml:space="preserve">signatory1@gmail.com,signatory2@gmail.com</t>
@@ -223,10 +226,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -349,29 +353,45 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -569,476 +589,485 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="15.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>22500</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="0" t="n">
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P2" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="0" t="n">
+      <c r="P2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="0" t="n">
+      <c r="T2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="5" t="n">
         <v>1800000</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="0" t="n">
+      <c r="P3" s="8"/>
+      <c r="R3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="0" t="n">
+      <c r="T3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>2800000</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="0" t="n">
+      <c r="K4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="R4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="0" t="n">
+      <c r="T4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>15000</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>1200000</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="K5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="N5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P5" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="0" t="n">
+      <c r="P5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="0" t="n">
+      <c r="T5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>400</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="0" t="n">
+      <c r="P6" s="8"/>
+      <c r="R6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" s="0" t="n">
+      <c r="T6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U6" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="0" t="n">
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="0" t="n">
+      <c r="K7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="R7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U7" s="0" t="n">
+      <c r="T7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" s="1" t="n">
         <v>700</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
+      <c r="G8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="0" t="n">
+      <c r="K8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="R8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="0" t="n">
+      <c r="T8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U8" s="1" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>3000000</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="D9" s="5"/>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
+      <c r="G9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="R9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>44216</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9" s="1" t="n">
         <v>800</v>
       </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P10" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
@@ -78,7 +78,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
-    <t xml:space="preserve">Investor *</t>
+    <t xml:space="preserve">Stakeholder *</t>
   </si>
   <si>
     <t xml:space="preserve">Fund *</t>
@@ -591,8 +591,8 @@
   </sheetPr>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2:P9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
+++ b/public/sample_uploads/capital_commitments_multi_currency_fund_unit.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t xml:space="preserve">Stakeholder *</t>
   </si>
@@ -141,6 +141,9 @@
     <t xml:space="preserve">CF 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Form Tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">Investor 1</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default</t>
   </si>
   <si>
     <t xml:space="preserve">Investor 2</t>
@@ -353,7 +359,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +373,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,10 +599,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -673,401 +683,428 @@
       <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>22500</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O2" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>27</v>
+      <c r="P2" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>100</v>
       </c>
+      <c r="V2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>32</v>
+      <c r="A3" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>1800000</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>29</v>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="8"/>
+      <c r="L3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="9"/>
       <c r="R3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S3" s="1" t="n">
         <v>2</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U3" s="1" t="n">
         <v>200</v>
       </c>
+      <c r="V3" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>34</v>
+      <c r="A4" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>2800000</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>29</v>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="8"/>
+      <c r="K4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="9"/>
       <c r="R4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S4" s="1" t="n">
         <v>3</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="U4" s="1" t="n">
         <v>300</v>
       </c>
+      <c r="V4" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
+      <c r="A5" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" s="6" t="n">
         <v>15000</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <v>1200000</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>23</v>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>36</v>
+      <c r="K5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="P5" s="6" t="s">
-        <v>27</v>
+      <c r="P5" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U5" s="1" t="n">
         <v>400</v>
       </c>
+      <c r="V5" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
+      <c r="A6" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C6" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>29</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>10</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="9"/>
       <c r="R6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S6" s="1" t="n">
         <v>5</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="U6" s="1" t="n">
         <v>500</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>11</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="8"/>
+      <c r="K7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="9"/>
       <c r="R7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S7" s="1" t="n">
         <v>7</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U7" s="1" t="n">
         <v>700</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>12</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="8"/>
+      <c r="K8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="9"/>
       <c r="R8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S8" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U8" s="1" t="n">
         <v>800</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="n">
         <v>3000000</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="8"/>
+      <c r="K9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="9"/>
       <c r="R9" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1" t="n">
         <v>800</v>
       </c>
+      <c r="V9" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P10" s="9"/>
+      <c r="P10" s="10"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
